--- a/Project3/project3.tables.xlsx
+++ b/Project3/project3.tables.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailcitytechcuny-my.sharepoint.com/personal/ted_kim_mail_citytech_cuny_edu/Documents/Graduate School/data607/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_44BF8298080D15798E4ED39859A56440495963C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9028D272-0BD0-4648-8916-2C92BC525A84}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="11_44BF8298080D15798E4ED39859A56440495963C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E59EB5-6E13-8441-A396-B657DB82380F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="51200" windowHeight="26200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NYC OPEN DATA_FIELD DEFINITION" sheetId="1" r:id="rId1"/>
     <sheet name="ERD_DRAFT" sheetId="2" r:id="rId2"/>
     <sheet name="CREATE TABLES QUERY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="160">
   <si>
     <t>int</t>
   </si>
@@ -242,12 +253,6 @@
     <t>CUISINE_DECRIPTION</t>
   </si>
   <si>
-    <t>tbl_cuisine_type</t>
-  </si>
-  <si>
-    <t>tbl_action_type</t>
-  </si>
-  <si>
     <t>CUISINE_CODE</t>
   </si>
   <si>
@@ -267,9 +272,6 @@
   </si>
   <si>
     <t>BORO_NAME</t>
-  </si>
-  <si>
-    <t>tbl_violation_type</t>
   </si>
   <si>
     <t>int unsigned</t>
@@ -468,6 +470,84 @@
   </si>
   <si>
     <t xml:space="preserve">    foreign key(VIOLATION_CODE) references tbl_violation_type(VIOLATION_CODE)</t>
+  </si>
+  <si>
+    <t>CRITICAL_FLAG_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>Current Max Length</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>GRADE_CODE</t>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>tbl_inspection_code</t>
+  </si>
+  <si>
+    <t>tbl_cuisine_code</t>
+  </si>
+  <si>
+    <t>tbl_action_code</t>
+  </si>
+  <si>
+    <t>tbl_grade_code</t>
+  </si>
+  <si>
+    <t>tbl_violation_code</t>
+  </si>
+  <si>
+    <t>tbl_critical_flag_code</t>
+  </si>
+  <si>
+    <t>decimal(10,8)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>VIOLATION_DESCRIPTION_CODE</t>
+  </si>
+  <si>
+    <t>tbl_violation_description_code</t>
+  </si>
+  <si>
+    <t>VIOLATION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Grade Pending issued on re-opening following an initial inspection that resulted in a closure</t>
+  </si>
+  <si>
+    <t>VIOLATION_CODE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * </t>
   </si>
 </sst>
 </file>
@@ -498,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +591,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -600,11 +686,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,19 +716,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,22 +729,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -667,20 +778,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,23 +829,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>778941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Elbow Connector 39">
+        <xdr:cNvPr id="108" name="Elbow Connector 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AE4766-55EE-2C44-9635-1DBE0700233B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -727,12 +853,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="3324224"/>
-          <a:ext cx="1828800" cy="2880360"/>
+          <a:off x="11125208" y="5752041"/>
+          <a:ext cx="1371592" cy="758826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 33333"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -756,22 +882,22 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Elbow Connector 50">
+        <xdr:cNvPr id="40" name="Elbow Connector 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -779,14 +905,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="866774"/>
-          <a:ext cx="1828800" cy="1333501"/>
+          <a:off x="4590143" y="4755243"/>
+          <a:ext cx="2013857" cy="1950357"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 70833"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -808,15 +937,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -830,9 +959,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="2009774"/>
-          <a:ext cx="1828800" cy="361951"/>
+        <a:xfrm flipV="1">
+          <a:off x="4562929" y="2195286"/>
+          <a:ext cx="2004785" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -861,14 +990,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -882,9 +1011,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="3152774"/>
-          <a:ext cx="1828800" cy="742951"/>
+        <a:xfrm flipV="1">
+          <a:off x="4553857" y="3895725"/>
+          <a:ext cx="2013857" cy="585561"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -911,14 +1040,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>778941</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1066</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -935,14 +1064,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9610725" y="866775"/>
-          <a:ext cx="1228725" cy="390525"/>
+          <a:off x="11125208" y="883708"/>
+          <a:ext cx="1364191" cy="398992"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 63926"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -963,14 +1095,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>778941</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>8475</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -987,12 +1119,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9610725" y="4857750"/>
-          <a:ext cx="1228725" cy="390525"/>
+          <a:off x="11125208" y="4157133"/>
+          <a:ext cx="1371600" cy="1205442"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 54938"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1015,16 +1147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>382058</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1039,10 +1171,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10896600" y="866775"/>
-          <a:ext cx="390525" cy="2466975"/>
+          <a:off x="11125200" y="883708"/>
+          <a:ext cx="390525" cy="2496609"/>
           <a:chOff x="9620250" y="866775"/>
-          <a:chExt cx="390525" cy="2466975"/>
+          <a:chExt cx="390525" cy="2441575"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1093,7 +1225,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9629775" y="3333750"/>
+            <a:off x="9629775" y="3308350"/>
             <a:ext cx="381000" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1129,7 +1261,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10010775" y="866775"/>
-            <a:ext cx="0" cy="2466975"/>
+            <a:ext cx="0" cy="2441448"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1156,13 +1288,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>7645</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>603522</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1179,10 +1311,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10896600" y="3390900"/>
-          <a:ext cx="390525" cy="1476375"/>
-          <a:chOff x="9620250" y="866775"/>
-          <a:chExt cx="390525" cy="2466975"/>
+          <a:off x="11141312" y="1043516"/>
+          <a:ext cx="595877" cy="3929592"/>
+          <a:chOff x="9620249" y="887995"/>
+          <a:chExt cx="298547" cy="6424766"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1191,6 +1323,2385 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9620249" y="898607"/>
+            <a:ext cx="289021" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="Straight Connector 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9629774" y="7312761"/>
+            <a:ext cx="289022" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="Straight Connector 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9912113" y="887995"/>
+            <a:ext cx="0" cy="6417336"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6638AF54-77CE-774F-A244-1C82044B37BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746167" y="4419598"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6E1CF2-78D4-9741-9E5A-5ABEE194AFCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6428317" y="6648454"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192310</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192310</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1773FD28-4674-EF4F-9A61-DF9ABD50A171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746167" y="3276598"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>150288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4973F7D-5B65-A841-BAF6-F46144B657FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="6449488"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1250AE18-D075-C648-9609-1852D86279AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="5302250"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415CE3B2-02C2-1D4B-B225-5973B595E725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10985500" y="965200"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF4B4BF-0886-D447-99AA-8D2BE175AA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="3244850"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FD887A-F450-A746-B13A-04FAE5763A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="800100"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450904</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6297</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150615</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A93340-B7E4-9C48-A785-684D21236635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6377571" y="2184135"/>
+          <a:ext cx="232726" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="Group 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94C91A6-38FA-3E5B-AF3A-AFBF541456ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="26" name="Straight Connector 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEAC934-E8D5-448E-41F9-ACED8FE376B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="Straight Connector 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386AB02F-E034-C5EB-D731-F36D6DE70727}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Oval 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8179DA30-21BA-3CC7-EF52-A7C4ACADBA47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>445911</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1304</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141978</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F518EE91-169E-5B42-8468-CDA3A4BFAE61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6372578" y="3928098"/>
+          <a:ext cx="232726" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="29" name="Group 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAF7A89-833E-CA71-866B-78909348AA54}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="Straight Connector 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF517FB-5014-18DA-C149-22D041A3EC1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="Straight Connector 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7676C8A-DA23-E0F2-7444-14BF4A69FDAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Oval 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B784F9-0392-FDCA-C7C4-C82942011C47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786965</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228385</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141115</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B733DEA-5425-3347-94ED-94AABDED2418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4571565" y="4706168"/>
+          <a:ext cx="228820" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="Group 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BBF9EC-9DA5-DD0C-804F-4CB6C7100DE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="Straight Connector 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B26275F-0FDD-FCCB-73E4-9CCD11F0B3D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Straight Connector 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F04100-C2BD-CDD8-AE68-6BAF15416C87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Oval 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E232C1C7-3DAE-D6E5-A1B0-D48235809387}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234246</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157830</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E68250F-5BE2-E440-B7BE-66A1EA41E4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11139528" y="828216"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="Group 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D5E917-A291-56FF-0F8F-013B4CF59D8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="Straight Connector 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A90805-E4EB-E815-26F4-B33451169E7E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="Straight Connector 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40643A-E11E-DF46-47BC-671CF9EE4AAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Oval 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CDB426-5815-630D-5284-77CAF762F3BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>869</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229254</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169116</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Group 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E1012C-3B2D-CD4C-B588-D8FAABF4043C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11134536" y="1228969"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="Group 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828EAB9B-DFB3-7EF0-FDBB-1B2628253819}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="Straight Connector 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04281214-DA97-CB62-9F03-36A5D8EAE297}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="Straight Connector 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C2D0F1-2B58-754F-C1BD-1FC53B0ED37D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Oval 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578B6A71-DCF8-36A2-EAC3-3C121AA5B879}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6732</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235117</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158694</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="Group 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD529CD-8B53-5F48-B90C-F4FF8FBB9995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11140399" y="4918480"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="52" name="Group 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5622DFA-5BB4-545F-429F-1E07F73CDB67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="Straight Connector 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F92E621-4081-4210-6E4D-A269B275E281}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="56" name="Straight Connector 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E9E46C-88C7-0BA3-EE72-5F83E9A556F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Oval 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E88B38-1C14-55C5-1252-80C2E40E1D6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1741</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230126</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153696</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Group 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC1B783-6C4F-B04B-A2E4-59F79B6A29B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11135408" y="5302949"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="Group 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF5461C-B80F-FDA6-F15B-5316CF0E78A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="61" name="Straight Connector 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086B0533-539C-592B-56B9-0D686B53872B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="62" name="Straight Connector 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE43017-6E2C-4954-85F2-8A3AF39D076B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Oval 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CD7EE4-1318-ACC5-4ED7-99B429894452}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>769626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>677067</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Elbow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD9964E-FDE9-884F-B90A-E7489C2720F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115893" y="1663978"/>
+          <a:ext cx="1372174" cy="381678"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63852"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516603</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516603</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7E7B4-0769-0248-9468-1A8F23249591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="1922613"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234165</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157649</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="Group 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8233DA8B-490A-004A-9D66-1E832B806697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11139447" y="1606969"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="84" name="Group 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72638EC0-CA21-9DAD-C5CF-3B0CD9B2FF01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="86" name="Straight Connector 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC1A57A-F669-BDF9-28E9-E022CD5512FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="87" name="Straight Connector 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8234F2-7D9C-D23E-F907-F7E250D30289}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Oval 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA1F5BB-2C3B-9708-521C-91053F60C374}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7264</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>669477</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Elbow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2980657F-33F8-6340-A913-1BDEE9D49CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4561121" y="937534"/>
+          <a:ext cx="2004785" cy="4082"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390077</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390077</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707E703F-423E-B54B-8E0F-8ED10A60BB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286506" y="877211"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4168</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230846</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46722</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="135" name="Group 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCC1AC9-1A5B-FE49-A049-C8A81BF4ED3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4576168" y="907608"/>
+          <a:ext cx="226678" cy="112781"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="136" name="Group 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5701CAB-AA4A-569D-4AE7-D7ADE7CB8FFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="138" name="Straight Connector 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6985D281-9D8E-F79C-6281-BBD86B6EC944}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="139" name="Straight Connector 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B810454-5CCF-E5B0-4819-5D0E103DADA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="Oval 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA186F2-A02C-6053-817F-8202D41FE8A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>397783</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104325</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="142" name="Group 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DA3422-9D10-6948-8678-20C6A948F742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4579258" y="1262288"/>
+          <a:ext cx="390525" cy="984104"/>
+          <a:chOff x="9620250" y="866775"/>
+          <a:chExt cx="390525" cy="962937"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="143" name="Straight Connector 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDE92D4-DBA9-7564-A693-0E766503B7EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1222,10 +3733,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="79" name="Straight Connector 78">
+          <xdr:cNvPr id="144" name="Straight Connector 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4378C595-1435-A972-5E0C-C599DB1B9C8C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1233,7 +3744,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9629775" y="3333750"/>
+            <a:off x="9629775" y="1829712"/>
             <a:ext cx="381000" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1257,10 +3768,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="80" name="Straight Connector 79">
+          <xdr:cNvPr id="145" name="Straight Connector 144">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3E129D-2416-0BA1-3065-30B33DD2158C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1269,7 +3780,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10010775" y="866775"/>
-            <a:ext cx="0" cy="2466975"/>
+            <a:ext cx="0" cy="960120"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1290,6 +3801,698 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2357</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>229035</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144691</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="146" name="Group 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F36ABAE-C8C1-1243-8BFD-A56C7F270274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4574357" y="1204544"/>
+          <a:ext cx="226678" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="147" name="Group 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3E7D86-B590-CCFF-EF4B-B0F7D301FA55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="149" name="Straight Connector 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFCFBEB-B294-28C4-83E5-EDCD9B7F14A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="150" name="Straight Connector 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C87ADAC-F4CE-3C44-B941-C9D2B15405FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="Oval 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FE1EA7-1A76-339C-92B7-F74B23981E60}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172361</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Straight Connector 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE5B6E7-C732-E649-9405-02BCD9DB7EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4744355" y="2140861"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>777418</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222744</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151740</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4DFBED-83B3-BB45-8DFE-49EF478848E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11123685" y="5690460"/>
+          <a:ext cx="232726" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="Group 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777130FE-31B3-5EF1-E2D8-77928AE79C77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="18" name="Straight Connector 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44DAC1F-4108-FFEB-0AF9-828D886AB93A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="Straight Connector 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9374C69A-4D48-CDF1-903E-B71C5A934DF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Oval 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91272576-BDF7-81E7-40E4-B295E0CCF309}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B44A3D9-1C46-0D46-8299-141E3C1C314C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="4091517"/>
+          <a:ext cx="0" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>778936</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660408</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Elbow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EBDF39-F569-0A47-932B-23D0A8CDAC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11125203" y="5342467"/>
+          <a:ext cx="1346205" cy="223309"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62579"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10205</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162165</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="Group 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E6238C-59CA-794A-943A-65F67527B3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11143872" y="5506151"/>
+          <a:ext cx="228385" cy="108547"/>
+          <a:chOff x="6355427" y="2138375"/>
+          <a:chExt cx="228385" cy="108547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="101" name="Group 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDD778D-AD94-AED7-279E-2CCFE9A2053C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6447692" y="2154658"/>
+            <a:ext cx="136120" cy="81844"/>
+            <a:chOff x="6447692" y="2154658"/>
+            <a:chExt cx="136120" cy="81844"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="103" name="Straight Connector 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0A9A84-37FD-1A04-21AC-59A32BF68F8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6447692" y="2154658"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="104" name="Straight Connector 103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402FC1B5-9121-7308-4955-9197E078ACBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448128" y="2193083"/>
+              <a:ext cx="135684" cy="43419"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="Oval 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79348D6-B0A4-619B-4D78-00D5BFE68F28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6355427" y="2138375"/>
+            <a:ext cx="108547" cy="108547"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1559,241 +4762,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="C1" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="C11" s="21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C14" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="C19" s="21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="C24" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="C26" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="C27" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="C28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:S42"/>
+  <dimension ref="B3:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1816,129 +5090,129 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="I3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="P3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="P3" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>55</v>
+      <c r="B5" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>55</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1948,27 +5222,39 @@
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>53</v>
@@ -1976,7 +5262,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I8" s="2"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1988,16 +5274,12 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>1</v>
@@ -2005,22 +5287,22 @@
       <c r="M9" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="P9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="B10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2030,22 +5312,34 @@
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="P10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="3" t="s">
         <v>65</v>
       </c>
@@ -2055,191 +5349,184 @@
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="P11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="S12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="3" t="s">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="I16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I13" s="5"/>
-      <c r="J13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="I18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="34"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="6" t="s">
         <v>46</v>
       </c>
@@ -2249,143 +5536,158 @@
       <c r="M21" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="P21" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="P22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="P24" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="11" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="4" t="s">
+      <c r="P26" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="3" t="s">
         <v>63</v>
       </c>
@@ -2395,157 +5697,317 @@
       <c r="M27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S27" s="4" t="s">
+      <c r="P27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="6" t="s">
+      <c r="P28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="34"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="P33" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="I35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="6" t="s">
+      <c r="P35" s="24"/>
+      <c r="Q35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S28" s="7" t="s">
+      <c r="R35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S35" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I31" s="26" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="L36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-    </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-    </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-    </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-    </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P20:S20"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B15:E15"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:I6"/>
@@ -2554,15 +6016,10 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="P3:S3"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
     <mergeCell ref="I24:M24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="P32:S32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2572,10 +6029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2586,44 +6043,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,18 +6091,18 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,7 +6135,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2686,10 +6143,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2697,43 +6154,43 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2744,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2755,38 +6212,38 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2797,33 +6254,33 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,25 +6291,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2860,36 +6317,43 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39">
+        <f>LEN(L39)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -2897,10 +6361,10 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -2908,10 +6372,10 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -2919,22 +6383,22 @@
         <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2945,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2956,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,7 +6431,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,27 +6442,27 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3020,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3039,7 +6503,7 @@
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3047,7 +6511,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,7 +6519,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3063,64 +6527,64 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3142,7 +6606,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3153,22 +6617,22 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Project3/project3.tables.xlsx
+++ b/Project3/project3.tables.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailcitytechcuny-my.sharepoint.com/personal/ted_kim_mail_citytech_cuny_edu/Documents/Graduate School/data607/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blacksmilez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="11_44BF8298080D15798E4ED39859A56440495963C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E59EB5-6E13-8441-A396-B657DB82380F}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="51200" windowHeight="26200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NYC OPEN DATA_FIELD DEFINITION" sheetId="1" r:id="rId1"/>
     <sheet name="ERD_DRAFT" sheetId="2" r:id="rId2"/>
     <sheet name="CREATE TABLES QUERY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="185">
   <si>
     <t>int</t>
   </si>
@@ -247,9 +246,6 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>CUSINE_CODE</t>
-  </si>
-  <si>
     <t>CUISINE_DECRIPTION</t>
   </si>
   <si>
@@ -272,9 +268,6 @@
   </si>
   <si>
     <t>BORO_NAME</t>
-  </si>
-  <si>
-    <t>int unsigned</t>
   </si>
   <si>
     <t>Spatial coordinates based on the lines of latitude and longitude. Lines of longitude (or meridians) measure the east-west position, with the prime meridian running through Greenwich, England. For NYC, Longitude is always negative.</t>
@@ -472,9 +465,6 @@
     <t xml:space="preserve">    foreign key(VIOLATION_CODE) references tbl_violation_type(VIOLATION_CODE)</t>
   </si>
   <si>
-    <t>CRITICAL_FLAG_CODE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> null</t>
   </si>
   <si>
@@ -499,9 +489,6 @@
     <t>varchar(1000)</t>
   </si>
   <si>
-    <t>GRADE_CODE</t>
-  </si>
-  <si>
     <t>varchar(70)</t>
   </si>
   <si>
@@ -529,31 +516,118 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>VIOLATION_DESCRIPTION_CODE</t>
-  </si>
-  <si>
     <t>tbl_violation_description_code</t>
   </si>
   <si>
-    <t>VIOLATION_DESCRIPTION</t>
-  </si>
-  <si>
     <t>Grade Pending issued on re-opening following an initial inspection that resulted in a closure</t>
   </si>
   <si>
-    <t>VIOLATION_CODE_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * </t>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>boro_code</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>community_board</t>
+  </si>
+  <si>
+    <t>council_district</t>
+  </si>
+  <si>
+    <t>census_tract</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t>nta</t>
+  </si>
+  <si>
+    <t>cuisine_code</t>
+  </si>
+  <si>
+    <t>cuisine_decription</t>
+  </si>
+  <si>
+    <t>inspection_code</t>
+  </si>
+  <si>
+    <t>inspection_type</t>
+  </si>
+  <si>
+    <t>camis</t>
+  </si>
+  <si>
+    <t>inspection_date</t>
+  </si>
+  <si>
+    <t>action_code</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>grade_code</t>
+  </si>
+  <si>
+    <t>grade_date</t>
+  </si>
+  <si>
+    <t>record_date</t>
+  </si>
+  <si>
+    <t>dba</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>violation_code</t>
+  </si>
+  <si>
+    <t>violation_description_code</t>
+  </si>
+  <si>
+    <t>critical_flag_code</t>
+  </si>
+  <si>
+    <t>boro_name</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>violation_code_5</t>
+  </si>
+  <si>
+    <t>violation_description</t>
+  </si>
+  <si>
+    <t>critical_flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,12 +662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +834,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,30 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +898,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778941</xdr:colOff>
+      <xdr:colOff>683691</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
@@ -1041,7 +1109,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778941</xdr:colOff>
+      <xdr:colOff>683691</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -1096,7 +1164,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778941</xdr:colOff>
+      <xdr:colOff>683691</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
@@ -1171,8 +1239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11125200" y="883708"/>
-          <a:ext cx="390525" cy="2496609"/>
+          <a:off x="9726083" y="866775"/>
+          <a:ext cx="384175" cy="2441575"/>
           <a:chOff x="9620250" y="866775"/>
           <a:chExt cx="390525" cy="2441575"/>
         </a:xfrm>
@@ -1311,8 +1379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11141312" y="1043516"/>
-          <a:ext cx="595877" cy="3929592"/>
+          <a:off x="9735845" y="1022349"/>
+          <a:ext cx="586352" cy="3844926"/>
           <a:chOff x="9620249" y="887995"/>
           <a:chExt cx="298547" cy="6424766"/>
         </a:xfrm>
@@ -1860,8 +1928,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6377571" y="2184135"/>
-          <a:ext cx="232726" cy="108547"/>
+          <a:off x="5619804" y="2137568"/>
+          <a:ext cx="145943" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2040,8 +2108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6372578" y="3928098"/>
-          <a:ext cx="232726" cy="108547"/>
+          <a:off x="5614811" y="3843431"/>
+          <a:ext cx="145943" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2220,8 +2288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4571565" y="4706168"/>
-          <a:ext cx="228820" cy="108547"/>
+          <a:off x="3984190" y="4604568"/>
+          <a:ext cx="231995" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2400,7 +2468,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11139528" y="828216"/>
+          <a:off x="9734061" y="811283"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -2580,7 +2648,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11134536" y="1228969"/>
+          <a:off x="9729069" y="1203569"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -2760,7 +2828,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11140399" y="4918480"/>
+          <a:off x="9734932" y="4812647"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -2940,7 +3008,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11135408" y="5302949"/>
+          <a:off x="9729941" y="5188649"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -3097,13 +3165,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>769626</xdr:colOff>
+      <xdr:colOff>683901</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>106111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>677067</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>792</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>98323</xdr:rowOff>
     </xdr:to>
@@ -3225,7 +3293,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11139447" y="1606969"/>
+          <a:off x="9733980" y="1573102"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -3387,8 +3455,8 @@
       <xdr:rowOff>175534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>669477</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2727</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179616</xdr:rowOff>
     </xdr:to>
@@ -3510,8 +3578,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4576168" y="907608"/>
-          <a:ext cx="226678" cy="112781"/>
+          <a:off x="3991968" y="890675"/>
+          <a:ext cx="226678" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -3690,8 +3758,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4579258" y="1262288"/>
-          <a:ext cx="390525" cy="984104"/>
+          <a:off x="3995058" y="1236888"/>
+          <a:ext cx="390525" cy="962937"/>
           <a:chOff x="9620250" y="866775"/>
           <a:chExt cx="390525" cy="962937"/>
         </a:xfrm>
@@ -3830,7 +3898,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4574357" y="1204544"/>
+          <a:off x="3990157" y="1179144"/>
           <a:ext cx="226678" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -4060,8 +4128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11123685" y="5690460"/>
-          <a:ext cx="232726" cy="108547"/>
+          <a:off x="9724568" y="5567693"/>
+          <a:ext cx="226376" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -4267,13 +4335,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778936</xdr:colOff>
+      <xdr:colOff>683686</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>660408</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3183</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>113243</xdr:rowOff>
     </xdr:to>
@@ -4342,7 +4410,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="11143872" y="5506151"/>
+          <a:off x="9738405" y="5387618"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -4761,21 +4829,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -4783,43 +4851,43 @@
         <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="21">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -4830,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -4841,7 +4909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
@@ -4852,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
@@ -4863,38 +4931,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="21">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
@@ -4905,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -4916,38 +4984,38 @@
         <v>961</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
@@ -4956,7 +5024,7 @@
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
@@ -4965,107 +5033,107 @@
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="21">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="21"/>
     </row>
@@ -5075,114 +5143,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:U44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:S44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="I3" s="32" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="P3" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="P3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>11</v>
@@ -5191,19 +5259,19 @@
         <v>55</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -5211,10 +5279,10 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="10"/>
       <c r="K6" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>2</v>
@@ -5224,24 +5292,24 @@
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="6" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -5251,20 +5319,20 @@
         <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I8" s="2"/>
       <c r="J8" s="10"/>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>0</v>
@@ -5273,13 +5341,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I9" s="2"/>
       <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>1</v>
@@ -5287,24 +5355,24 @@
       <c r="M9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="P9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="I10" s="2"/>
       <c r="J10" s="10"/>
       <c r="K10" s="3" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>2</v>
@@ -5312,36 +5380,36 @@
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="36" t="s">
+      <c r="R10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="10"/>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>2</v>
@@ -5353,7 +5421,7 @@
         <v>55</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>1</v>
@@ -5362,15 +5430,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
@@ -5380,17 +5448,17 @@
         <v>54</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="6" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>3</v>
@@ -5399,136 +5467,136 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="I16" s="32" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="I16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="36" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="6" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="3" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="3" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="34"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I21" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="6" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>5</v>
@@ -5536,55 +5604,55 @@
       <c r="M21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="35" t="s">
+      <c r="P21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="36" t="s">
+      <c r="Q21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="P22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="28" t="s">
         <v>50</v>
       </c>
       <c r="P23" s="24"/>
       <c r="Q23" s="6" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>7</v>
@@ -5592,16 +5660,13 @@
       <c r="S23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
@@ -5609,87 +5674,87 @@
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="36" t="s">
+      <c r="J25" s="33"/>
+      <c r="K25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P26" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>2</v>
@@ -5697,23 +5762,23 @@
       <c r="M27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="35" t="s">
+      <c r="P27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="36" t="s">
+      <c r="Q27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="R27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -5721,15 +5786,15 @@
       <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="3" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>11</v>
@@ -5738,82 +5803,79 @@
         <v>55</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="3" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="6" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="6" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>8</v>
@@ -5822,10 +5884,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -5833,17 +5895,17 @@
       <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P32" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -5851,67 +5913,67 @@
       <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="P33" s="35" t="s">
+      <c r="I33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="P33" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="Q33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="R33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36" t="s">
+      <c r="J34" s="27"/>
+      <c r="K34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="28" t="s">
         <v>50</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>55</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="6" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>10</v>
@@ -5924,30 +5986,30 @@
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="3" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="6" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I36" s="24"/>
       <c r="J36" s="25"/>
       <c r="K36" s="6" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>6</v>
@@ -5956,7 +6018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
@@ -5965,7 +6027,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -5974,7 +6036,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -5983,7 +6045,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -5999,10 +6061,6 @@
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="I26:J27"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P20:S20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
@@ -6020,6 +6078,10 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P20:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6028,62 +6090,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -6091,21 +6153,21 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -6113,10 +6175,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -6124,10 +6186,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -6135,65 +6197,65 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -6201,10 +6263,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -6212,41 +6274,41 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -6254,62 +6316,62 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -6317,43 +6379,43 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M39">
         <f>LEN(L39)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -6361,10 +6423,10 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -6372,10 +6434,10 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -6383,25 +6445,25 @@
         <v>68</v>
       </c>
       <c r="D46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -6409,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>16</v>
       </c>
@@ -6420,10 +6482,10 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -6431,10 +6493,10 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>46</v>
       </c>
@@ -6442,30 +6504,30 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -6473,10 +6535,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -6484,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>34</v>
       </c>
@@ -6495,99 +6557,99 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>15</v>
       </c>
@@ -6595,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>63</v>
       </c>
@@ -6606,10 +6668,10 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>60</v>
       </c>
@@ -6617,22 +6679,22 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Project3/project3.tables.xlsx
+++ b/Project3/project3.tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blacksmilez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/SPS/Repo/DATA 607/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A4006-30E6-D446-8D59-88A3340808A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NYC OPEN DATA_FIELD DEFINITION" sheetId="1" r:id="rId1"/>
     <sheet name="ERD_DRAFT" sheetId="2" r:id="rId2"/>
     <sheet name="CREATE TABLES QUERY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="184">
   <si>
     <t>int</t>
   </si>
@@ -465,9 +466,6 @@
     <t xml:space="preserve">    foreign key(VIOLATION_CODE) references tbl_violation_type(VIOLATION_CODE)</t>
   </si>
   <si>
-    <t xml:space="preserve"> null</t>
-  </si>
-  <si>
     <t>varchar(12)</t>
   </si>
   <si>
@@ -522,6 +520,24 @@
     <t>Grade Pending issued on re-opening following an initial inspection that resulted in a closure</t>
   </si>
   <si>
+    <t>camis</t>
+  </si>
+  <si>
+    <t>inspection_date</t>
+  </si>
+  <si>
+    <t>inspection_code</t>
+  </si>
+  <si>
+    <t>inspection_type</t>
+  </si>
+  <si>
+    <t>cuisine_code</t>
+  </si>
+  <si>
+    <t>cuisine_decription</t>
+  </si>
+  <si>
     <t>bin</t>
   </si>
   <si>
@@ -543,37 +559,19 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>community_board</t>
-  </si>
-  <si>
-    <t>council_district</t>
-  </si>
-  <si>
-    <t>census_tract</t>
+    <t>community board</t>
+  </si>
+  <si>
+    <t>council district</t>
+  </si>
+  <si>
+    <t>census tract</t>
   </si>
   <si>
     <t>bbl</t>
   </si>
   <si>
     <t>nta</t>
-  </si>
-  <si>
-    <t>cuisine_code</t>
-  </si>
-  <si>
-    <t>cuisine_decription</t>
-  </si>
-  <si>
-    <t>inspection_code</t>
-  </si>
-  <si>
-    <t>inspection_type</t>
-  </si>
-  <si>
-    <t>camis</t>
-  </si>
-  <si>
-    <t>inspection_date</t>
   </si>
   <si>
     <t>action_code</t>
@@ -627,7 +625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,7 +650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +660,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,28 +838,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,6 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,7 +903,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>683691</xdr:colOff>
+      <xdr:colOff>778941</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
@@ -1036,6 +1041,12 @@
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1109,7 +1120,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>683691</xdr:colOff>
+      <xdr:colOff>778941</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -1164,7 +1175,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>683691</xdr:colOff>
+      <xdr:colOff>778941</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
@@ -1239,8 +1250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9726083" y="866775"/>
-          <a:ext cx="384175" cy="2441575"/>
+          <a:off x="11125200" y="883708"/>
+          <a:ext cx="390525" cy="2496609"/>
           <a:chOff x="9620250" y="866775"/>
           <a:chExt cx="390525" cy="2441575"/>
         </a:xfrm>
@@ -1379,8 +1390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9735845" y="1022349"/>
-          <a:ext cx="586352" cy="3844926"/>
+          <a:off x="11141312" y="1043516"/>
+          <a:ext cx="595877" cy="3929592"/>
           <a:chOff x="9620249" y="887995"/>
           <a:chExt cx="298547" cy="6424766"/>
         </a:xfrm>
@@ -1928,8 +1939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5619804" y="2137568"/>
-          <a:ext cx="145943" cy="108547"/>
+          <a:off x="6377571" y="2184135"/>
+          <a:ext cx="232726" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2108,8 +2119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5614811" y="3843431"/>
-          <a:ext cx="145943" cy="108547"/>
+          <a:off x="6372578" y="3928098"/>
+          <a:ext cx="232726" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2288,8 +2299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="3984190" y="4604568"/>
-          <a:ext cx="231995" cy="108547"/>
+          <a:off x="4571565" y="4706168"/>
+          <a:ext cx="228820" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -2468,7 +2479,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9734061" y="811283"/>
+          <a:off x="11139528" y="828216"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -2648,7 +2659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9729069" y="1203569"/>
+          <a:off x="11134536" y="1228969"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -2828,7 +2839,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9734932" y="4812647"/>
+          <a:off x="11140399" y="4918480"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -3008,7 +3019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9729941" y="5188649"/>
+          <a:off x="11135408" y="5302949"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -3165,13 +3176,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>683901</xdr:colOff>
+      <xdr:colOff>769626</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>106111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>792</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>677067</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>98323</xdr:rowOff>
     </xdr:to>
@@ -3293,7 +3304,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9733980" y="1573102"/>
+          <a:off x="11139447" y="1606969"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -3455,8 +3466,8 @@
       <xdr:rowOff>175534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2727</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>669477</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179616</xdr:rowOff>
     </xdr:to>
@@ -3578,8 +3589,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="3991968" y="890675"/>
-          <a:ext cx="226678" cy="108547"/>
+          <a:off x="4576168" y="907608"/>
+          <a:ext cx="226678" cy="112781"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -3758,8 +3769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3995058" y="1236888"/>
-          <a:ext cx="390525" cy="962937"/>
+          <a:off x="4579258" y="1262288"/>
+          <a:ext cx="390525" cy="984104"/>
           <a:chOff x="9620250" y="866775"/>
           <a:chExt cx="390525" cy="962937"/>
         </a:xfrm>
@@ -3898,7 +3909,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="3990157" y="1179144"/>
+          <a:off x="4574357" y="1204544"/>
           <a:ext cx="226678" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -4128,8 +4139,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9724568" y="5567693"/>
-          <a:ext cx="226376" cy="108547"/>
+          <a:off x="11123685" y="5690460"/>
+          <a:ext cx="232726" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
         </a:xfrm>
@@ -4335,13 +4346,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>683686</xdr:colOff>
+      <xdr:colOff>778936</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3183</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660408</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>113243</xdr:rowOff>
     </xdr:to>
@@ -4410,7 +4421,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="9738405" y="5387618"/>
+          <a:off x="11143872" y="5506151"/>
           <a:ext cx="228385" cy="108547"/>
           <a:chOff x="6355427" y="2138375"/>
           <a:chExt cx="228385" cy="108547"/>
@@ -4829,21 +4840,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -4851,10 +4862,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -4865,7 +4876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -4876,7 +4887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -4909,7 +4920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
@@ -4931,7 +4942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -4951,7 +4962,7 @@
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +4984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -4984,7 +4995,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
@@ -5004,7 +5015,7 @@
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>35</v>
       </c>
@@ -5015,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
@@ -5024,7 +5035,7 @@
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
@@ -5033,7 +5044,7 @@
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
@@ -5044,7 +5055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
@@ -5053,7 +5064,7 @@
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
@@ -5062,7 +5073,7 @@
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>44</v>
       </c>
@@ -5084,7 +5095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>45</v>
       </c>
@@ -5095,7 +5106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
@@ -5106,7 +5117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>47</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>48</v>
       </c>
@@ -5128,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>49</v>
       </c>
@@ -5143,31 +5154,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:S44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
@@ -5182,13 +5193,13 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
       <c r="P3" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="31"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>51</v>
       </c>
@@ -5227,15 +5238,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -5247,10 +5258,10 @@
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>11</v>
@@ -5259,7 +5270,7 @@
         <v>55</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>9</v>
@@ -5268,45 +5279,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="10"/>
       <c r="K6" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -5319,7 +5330,7 @@
         <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>9</v>
@@ -5328,11 +5339,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I8" s="2"/>
       <c r="J8" s="10"/>
       <c r="K8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>0</v>
@@ -5341,13 +5352,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I9" s="2"/>
       <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>1</v>
@@ -5356,15 +5367,15 @@
         <v>53</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="31"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -5372,13 +5383,13 @@
       <c r="I10" s="2"/>
       <c r="J10" s="10"/>
       <c r="K10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P10" s="26" t="s">
         <v>51</v>
@@ -5393,7 +5404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -5409,7 +5420,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="10"/>
       <c r="K11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>2</v>
@@ -5421,7 +5432,7 @@
         <v>55</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>1</v>
@@ -5430,12 +5441,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -5448,17 +5459,17 @@
         <v>54</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>3</v>
@@ -5467,21 +5478,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="16"/>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -5494,7 +5505,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>51</v>
       </c>
@@ -5521,12 +5532,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -5539,22 +5550,22 @@
       </c>
       <c r="J18" s="39"/>
       <c r="K18" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -5562,41 +5573,41 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
       <c r="K19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
       <c r="K20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>5</v>
@@ -5617,7 +5628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>72</v>
       </c>
@@ -5628,7 +5639,7 @@
         <v>55</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -5637,7 +5648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>51</v>
       </c>
@@ -5652,7 +5663,7 @@
       </c>
       <c r="P23" s="24"/>
       <c r="Q23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>7</v>
@@ -5661,12 +5672,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
@@ -5682,12 +5693,12 @@
       <c r="L24" s="30"/>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1</v>
@@ -5709,13 +5720,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>53</v>
@@ -5725,28 +5736,28 @@
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>11</v>
@@ -5754,12 +5765,12 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="40" t="s">
         <v>11</v>
       </c>
       <c r="P27" s="26" t="s">
@@ -5775,10 +5786,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -5791,7 +5802,7 @@
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>8</v>
@@ -5803,7 +5814,7 @@
         <v>55</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>8</v>
@@ -5812,13 +5823,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>53</v>
@@ -5828,7 +5839,7 @@
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -5838,22 +5849,22 @@
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>53</v>
@@ -5863,7 +5874,7 @@
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>1</v>
@@ -5872,10 +5883,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>8</v>
@@ -5884,10 +5895,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -5896,16 +5907,16 @@
         <v>53</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
@@ -5933,13 +5944,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>53</v>
@@ -5961,7 +5972,7 @@
         <v>55</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>1</v>
@@ -5970,10 +5981,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>10</v>
@@ -5986,7 +5997,7 @@
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>1</v>
@@ -5996,20 +6007,20 @@
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I36" s="24"/>
       <c r="J36" s="25"/>
       <c r="K36" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>6</v>
@@ -6018,7 +6029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
@@ -6027,7 +6038,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -6036,7 +6047,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -6045,7 +6056,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -6090,25 +6101,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -6130,22 +6141,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -6156,7 +6167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -6200,7 +6211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -6211,7 +6222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>102</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>103</v>
       </c>
@@ -6244,7 +6255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>104</v>
       </c>
@@ -6255,7 +6266,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -6277,27 +6288,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>71</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -6319,22 +6330,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -6345,7 +6356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>69</v>
       </c>
@@ -6356,22 +6367,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -6382,7 +6393,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>113</v>
       </c>
@@ -6393,29 +6404,29 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="L39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M39">
         <f>LEN(L39)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -6437,7 +6448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -6448,22 +6459,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -6474,7 +6485,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>16</v>
       </c>
@@ -6485,7 +6496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>46</v>
       </c>
@@ -6507,27 +6518,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>34</v>
       </c>
@@ -6560,7 +6571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>35</v>
       </c>
@@ -6568,7 +6579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>66</v>
       </c>
@@ -6576,7 +6587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>65</v>
       </c>
@@ -6584,7 +6595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>63</v>
       </c>
@@ -6592,7 +6603,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>71</v>
       </c>
@@ -6603,7 +6614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>70</v>
       </c>
@@ -6614,42 +6625,42 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>15</v>
       </c>
@@ -6660,7 +6671,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>63</v>
       </c>
@@ -6671,7 +6682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>60</v>
       </c>
@@ -6682,17 +6693,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>99</v>
       </c>
